--- a/CAMS/dmis2019_groundfish_discard_CAMS_comparison_012122.xlsx
+++ b/CAMS/dmis2019_groundfish_discard_CAMS_comparison_012122.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="dmis2019_groundfish_discard" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>NESPP3</t>
   </si>
@@ -204,7 +204,10 @@
     <t>CAMS Discard</t>
   </si>
   <si>
-    <t>Diff</t>
+    <t>% Diff</t>
+  </si>
+  <si>
+    <t>Diff (lbs)</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -663,7 +666,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -707,17 +710,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -758,6 +763,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -1038,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,24 +1057,24 @@
     <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,10 +1091,13 @@
         <v>60</v>
       </c>
       <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>82</v>
       </c>
@@ -1102,15 +1111,20 @@
         <v>6383</v>
       </c>
       <c r="E2" s="3">
-        <f>K9</f>
+        <f>L9</f>
         <v>5579</v>
       </c>
       <c r="F2" s="4">
         <f>E2-D2</f>
         <v>-804</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G2" s="5">
+        <f>F2/D2</f>
+        <v>-0.12595958013473288</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>82</v>
       </c>
@@ -1124,15 +1138,20 @@
         <v>11052</v>
       </c>
       <c r="E3" s="3">
-        <f>V9</f>
+        <f>W9</f>
         <v>13845</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F28" si="0">E3-D3</f>
         <v>2793</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G28" si="1">F3/D3</f>
+        <v>0.25271444082519001</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>82</v>
       </c>
@@ -1146,15 +1165,20 @@
         <v>29973</v>
       </c>
       <c r="E4" s="3">
-        <f>P9</f>
+        <f>Q9</f>
         <v>14032</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>-15941</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.53184532746138191</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>125</v>
       </c>
@@ -1168,15 +1192,20 @@
         <v>71974</v>
       </c>
       <c r="E5" s="3">
-        <f>U13</f>
+        <f>V13</f>
         <v>54047</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>-17927</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.24907605524217077</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>125</v>
       </c>
@@ -1190,15 +1219,20 @@
         <v>48082</v>
       </c>
       <c r="E6" s="3">
-        <f>N13</f>
+        <f>O13</f>
         <v>68342</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>20260</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.4213635040139761</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>120</v>
       </c>
@@ -1212,63 +1246,68 @@
         <v>1974</v>
       </c>
       <c r="E7" s="3">
-        <f>L11</f>
+        <f>M11</f>
         <v>1367</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>-607</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.30749746707193515</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>120</v>
       </c>
@@ -1282,43 +1321,48 @@
         <v>3810</v>
       </c>
       <c r="E8" s="3">
-        <f>P11</f>
+        <f>Q11</f>
         <v>3047</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>-763</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.20026246719160104</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>172909</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>22800</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
         <v>834</v>
       </c>
-      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1">
         <v>190</v>
       </c>
-      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>120</v>
       </c>
@@ -1332,45 +1376,50 @@
         <v>5789</v>
       </c>
       <c r="E9" s="3">
-        <f>U11</f>
+        <f>V11</f>
         <v>11524</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>5735</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99067196406978753</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>164712</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
         <v>5579</v>
       </c>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1">
         <v>14032</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>21</v>
       </c>
-      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1">
         <v>85</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1">
+      <c r="V9" s="1"/>
+      <c r="W9" s="1">
         <v>13845</v>
       </c>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>148</v>
       </c>
@@ -1384,43 +1433,48 @@
         <v>107176</v>
       </c>
       <c r="E10" s="3">
-        <f>K10</f>
+        <f>L10</f>
         <v>43085</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>-64091</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.59799768604911552</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>164744</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
         <v>43085</v>
       </c>
-      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
         <v>150360</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>2</v>
       </c>
-      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1">
+      <c r="W10" s="1"/>
+      <c r="X10" s="1">
         <v>554947</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>148</v>
       </c>
@@ -1434,41 +1488,46 @@
         <v>384367</v>
       </c>
       <c r="E11" s="3">
-        <f>W10</f>
+        <f>X10</f>
         <v>554947</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>170580</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.44379460255432956</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>172905</v>
       </c>
-      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
         <v>1367</v>
       </c>
-      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
         <v>3047</v>
       </c>
-      <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
         <v>11524</v>
       </c>
-      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>148</v>
       </c>
@@ -1482,39 +1541,44 @@
         <v>202985</v>
       </c>
       <c r="E12" s="3">
-        <f>P10</f>
+        <f>Q10</f>
         <v>150360</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>-52625</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.25925561002044484</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>630979</v>
       </c>
-      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
         <v>92429</v>
       </c>
-      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
         <v>19890</v>
       </c>
-      <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>159</v>
       </c>
@@ -1528,39 +1592,44 @@
         <v>103889</v>
       </c>
       <c r="E13" s="3">
-        <f>R20</f>
+        <f>S20</f>
         <v>163486</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>59597</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.57366034902636465</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>172746</v>
       </c>
-      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
         <v>68342</v>
       </c>
-      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
         <v>54047</v>
       </c>
-      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>154</v>
       </c>
@@ -1574,39 +1643,44 @@
         <v>21184</v>
       </c>
       <c r="E14" s="3">
-        <f>R18</f>
+        <f>S18</f>
         <v>26492</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>5308</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.2505664652567976</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>172873</v>
       </c>
-      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
         <v>92235</v>
       </c>
-      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1">
+      <c r="S14" s="1"/>
+      <c r="T14" s="1">
         <v>794</v>
       </c>
-      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>250</v>
       </c>
@@ -1620,41 +1694,46 @@
         <v>41017</v>
       </c>
       <c r="E15" s="3">
-        <f>P12</f>
+        <f>Q12</f>
         <v>19890</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>-21127</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.51507911353828906</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>171341</v>
       </c>
-      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
         <v>235</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>85117</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>124</v>
       </c>
@@ -1668,43 +1747,48 @@
         <v>109023</v>
       </c>
       <c r="E16" s="3">
-        <f>N13</f>
+        <f>O13</f>
         <v>68342</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>-40681</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.3731414472175596</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>172877</v>
       </c>
-      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
         <v>44901</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>108088</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1">
+      <c r="T16" s="1"/>
+      <c r="U16" s="1">
         <v>811</v>
       </c>
-      <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>270</v>
       </c>
@@ -1718,39 +1802,44 @@
         <v>162629</v>
       </c>
       <c r="E17" s="3">
-        <f>R17</f>
+        <f>S17</f>
         <v>194225</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>31596</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>0.19428269250871616</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>164727</v>
       </c>
-      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>194225</v>
       </c>
-      <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>240</v>
       </c>
@@ -1764,39 +1853,44 @@
         <v>91553</v>
       </c>
       <c r="E18" s="3">
-        <f>R19</f>
+        <f>S19</f>
         <v>120402</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>28849</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.3151070964359442</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>164732</v>
       </c>
-      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1">
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1">
         <v>20</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>26492</v>
       </c>
-      <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>82</v>
       </c>
@@ -1811,32 +1905,34 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>166774</v>
       </c>
-      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1">
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>120402</v>
       </c>
-      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>120</v>
       </c>
@@ -1851,32 +1947,34 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>172933</v>
       </c>
-      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1">
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>163486</v>
       </c>
-      <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>125</v>
       </c>
@@ -1891,8 +1989,10 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>123</v>
       </c>
@@ -1907,8 +2007,10 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>148</v>
       </c>
@@ -1923,8 +2025,10 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>122</v>
       </c>
@@ -1938,15 +2042,20 @@
         <v>83644</v>
       </c>
       <c r="E24" s="3">
-        <f>N14</f>
+        <f>O14</f>
         <v>92235</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="0"/>
         <v>8591</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.10270910047343504</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>512</v>
       </c>
@@ -1960,15 +2069,20 @@
         <v>5352</v>
       </c>
       <c r="E25" s="3">
-        <f>P15</f>
+        <f>Q15</f>
         <v>85117</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="0"/>
         <v>79765</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G25" s="5">
+        <f t="shared" si="1"/>
+        <v>14.903774289985053</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>123</v>
       </c>
@@ -1982,15 +2096,20 @@
         <v>32835</v>
       </c>
       <c r="E26" s="3">
-        <f>J8</f>
+        <f>K8</f>
         <v>22800</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
         <v>-10035</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.30561900411146642</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>123</v>
       </c>
@@ -2004,15 +2123,20 @@
         <v>304</v>
       </c>
       <c r="E27" s="3">
-        <f>L8</f>
+        <f>M8</f>
         <v>834</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>1.743421052631579</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>123</v>
       </c>
@@ -2026,13 +2150,18 @@
         <v>500</v>
       </c>
       <c r="E28" s="3">
-        <f>T8</f>
+        <f>U8</f>
         <v>190</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="0"/>
         <v>-310</v>
       </c>
+      <c r="G28" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.62</v>
+      </c>
+      <c r="H28" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:D28">
